--- a/notebooks/datasets/Book1.xlsx
+++ b/notebooks/datasets/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samir\OpenClassrooms\school-dropout-in-sogamoso\notebooks\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8892CAD-D25B-47E1-8340-57D5841A41E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0124C865-E10A-4369-A788-DD3062B7AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ACE2515D-4412-4D57-AED8-180FDA9394C1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="60">
   <si>
     <t>Estudiante</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Si es retirado con motivo = deserción se toma para el mismo año. En este caso no sé tiene en cuenta el año siguiente</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Matriculado</t>
+  </si>
+  <si>
+    <t>Retirado</t>
   </si>
 </sst>
 </file>
@@ -316,13 +325,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,6 +414,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -743,7 +761,7 @@
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="4"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -774,337 +792,337 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4">
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="L12" s="4">
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="L12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1132,7 +1150,7 @@
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1140,43 +1158,43 @@
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="32"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="32"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="32"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="32"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="32"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1188,585 +1206,691 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CAE2E0-E318-476D-939E-82F81F961261}">
-  <dimension ref="A1:I25"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>2013</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>2013</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>2013</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12">
         <v>1</v>
       </c>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>2013</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>2013</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>1</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22">
+    <row r="7" spans="1:9" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2015</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>4</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2014</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2014</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2016</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2015</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>5</v>
+      </c>
+      <c r="B16" s="17">
+        <v>2015</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>4</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2015</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>5</v>
+      </c>
+      <c r="B18" s="17">
+        <v>2016</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" s="24" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>6</v>
+      </c>
+      <c r="B19" s="21">
         <v>2013</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="22" t="s">
+      <c r="E19" s="22"/>
+      <c r="F19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="22">
-        <v>0</v>
-      </c>
-      <c r="I7" s="31" t="s">
+      <c r="H19" s="21">
+        <v>0</v>
+      </c>
+      <c r="I19" s="30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="20" spans="1:9" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B20" s="8">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" s="13" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>6</v>
+      </c>
+      <c r="B22" s="21">
         <v>2014</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="21">
+        <v>1</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>4</v>
+      </c>
+      <c r="B23" s="14">
+        <v>2016</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>6</v>
+      </c>
+      <c r="B24" s="21">
+        <v>2015</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="21">
+        <v>0</v>
+      </c>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>6</v>
+      </c>
+      <c r="B25" s="21">
+        <v>2016</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="30"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
         <v>2014</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>3</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>4</v>
-      </c>
-      <c r="B11" s="15">
-        <v>2014</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="C40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15">
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="24">
+        <v>2016</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="24">
         <v>1</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>5</v>
-      </c>
-      <c r="B12" s="18">
-        <v>2014</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>6</v>
-      </c>
-      <c r="B13" s="22">
-        <v>2014</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22">
+      <c r="I42" s="35"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2015</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>2</v>
-      </c>
-      <c r="B15" s="11">
-        <v>2015</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>3</v>
-      </c>
-      <c r="B16" s="13">
-        <v>2015</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>4</v>
-      </c>
-      <c r="B17" s="15">
-        <v>2015</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>5</v>
-      </c>
-      <c r="B18" s="18">
-        <v>2015</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="30"/>
-    </row>
-    <row r="19" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>6</v>
-      </c>
-      <c r="B19" s="22">
-        <v>2015</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="22">
-        <v>0</v>
-      </c>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>1</v>
-      </c>
-      <c r="B20" s="9">
-        <v>2016</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="26"/>
-    </row>
-    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>2</v>
-      </c>
-      <c r="B21" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>3</v>
-      </c>
-      <c r="B22" s="13">
-        <v>2016</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
-        <v>4</v>
-      </c>
-      <c r="B23" s="15">
-        <v>2016</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
-        <v>5</v>
-      </c>
-      <c r="B24" s="18">
-        <v>2016</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
-        <v>6</v>
-      </c>
-      <c r="B25" s="22">
-        <v>2016</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="31"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J25" xr:uid="{95CAE2E0-E318-476D-939E-82F81F961261}"/>
+  <autoFilter ref="A1:J25" xr:uid="{95CAE2E0-E318-476D-939E-82F81F961261}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Mauricio"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:I25">
+      <sortCondition ref="C1:C25"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
